--- a/data/speech/significant_category_correlations.xlsx
+++ b/data/speech/significant_category_correlations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>pos_frequency_related</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>neg_syntactic_complexity</t>
-  </si>
-  <si>
-    <t>Group</t>
   </si>
   <si>
     <t>STAI2</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,184 +501,184 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>-0.5667582627255553</v>
-      </c>
-      <c r="L2">
-        <v>-0.5670758358475363</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0.4741011902342975</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0.4741011902342975</v>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.9020252264965001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.9020252264965001</v>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.7205737630356254</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.7205737630356254</v>
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.4741011902342975</v>
+      </c>
+      <c r="K11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>0.4741011902342975</v>
-      </c>
-      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.9020252264965001</v>
+      </c>
+      <c r="L12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>0.9020252264965001</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>0.7205737630356254</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0.4248097984757305</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>0.7205737630356254</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0.4248097984757305</v>
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>0.4248097984757305</v>
+      </c>
+      <c r="O15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16">
-        <v>0.4248097984757305</v>
-      </c>
-      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P17">
+        <v>15</v>
+      </c>
+      <c r="Q17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>0.4564924291072454</v>
+      </c>
+      <c r="L18">
+        <v>0.4856799701259465</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19">
-        <v>0.4564924291072454</v>
-      </c>
       <c r="L19">
-        <v>0.4856799701259465</v>
+        <v>0.4362333400597814</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D20">
+        <v>0.4628163701722709</v>
+      </c>
       <c r="L20">
-        <v>0.4362333400597814</v>
+        <v>0.4663270205395248</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -689,10 +686,10 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>0.4628163701722709</v>
+        <v>0.4652357158080189</v>
       </c>
       <c r="L21">
-        <v>0.4663270205395248</v>
+        <v>0.4676152245585997</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -700,29 +697,29 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>0.4652357158080189</v>
+        <v>0.5185022232245033</v>
       </c>
       <c r="L22">
-        <v>0.4676152245585997</v>
+        <v>0.4948815095445617</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23">
-        <v>0.5185022232245033</v>
-      </c>
       <c r="L23">
-        <v>0.4948815095445617</v>
+        <v>-0.4404539690038299</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D24">
+        <v>-0.4238535921826093</v>
+      </c>
       <c r="L24">
-        <v>-0.4404539690038299</v>
+        <v>-0.495027533457539</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -730,17 +727,6 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>-0.4238535921826093</v>
-      </c>
-      <c r="L25">
-        <v>-0.495027533457539</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26">
         <v>-0.4354474475091382</v>
       </c>
     </row>
